--- a/dtpu_configurations/only_integer32/80mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/graph.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D0E8D-DB21-4F7B-A51E-1CA7914CB25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBE4323-B91A-4093-A6A8-00679C6AC3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>3x3</t>
   </si>
@@ -35,30 +35,6 @@
   </si>
   <si>
     <t>8x8</t>
-  </si>
-  <si>
-    <t>10x10</t>
-  </si>
-  <si>
-    <t>12x12</t>
-  </si>
-  <si>
-    <t>14x14</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>Clocks</t>
@@ -258,7 +234,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -276,30 +252,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,46 +263,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>18.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.45</c:v>
+                  <c:v>19.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.14</c:v>
+                  <c:v>22.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.77</c:v>
+                  <c:v>26.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.03</c:v>
+                  <c:v>28.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89.09</c:v>
+                  <c:v>39.340000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,7 +320,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -410,30 +338,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,40 +355,16 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.41</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.62</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +406,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -544,30 +424,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -579,46 +435,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>12.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.67</c:v>
+                  <c:v>14.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>15.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.57</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>20.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.99</c:v>
+                  <c:v>24.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,7 +492,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -678,30 +510,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,45 +521,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -794,7 +578,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -812,30 +596,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -847,46 +607,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.73</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
+                  <c:v>21.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.09</c:v>
+                  <c:v>34.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.64</c:v>
+                  <c:v>49.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.09</c:v>
+                  <c:v>66.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>79.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +664,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -946,30 +682,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -996,30 +708,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1064,7 +752,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1082,30 +770,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1133,30 +797,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1090,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1468,30 +1108,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,46 +1119,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.08</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.34902036190032959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,7 +1176,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1602,30 +1194,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1646,37 +1214,13 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>1.5648594126105309E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,7 +1553,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2027,30 +1571,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2062,46 +1582,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +1637,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2159,30 +1655,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2200,40 +1672,16 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +1721,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2291,30 +1739,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2342,30 +1766,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,7 +1805,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2423,30 +1823,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2474,30 +1850,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,7 +1889,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2555,30 +1907,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2605,30 +1933,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2669,7 +1973,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2687,30 +1991,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2737,30 +2017,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2803,7 +2059,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2821,30 +2077,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2871,30 +2103,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2937,7 +2145,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2955,30 +2163,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3005,30 +2189,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3071,7 +2231,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3089,30 +2249,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3139,30 +2275,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3205,7 +2317,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3223,30 +2335,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3258,46 +2346,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.45</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.46</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.46</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.52</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,35 +4700,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -5672,19 +4736,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.5</v>
+        <v>18.27</v>
       </c>
       <c r="C2">
         <v>5.34</v>
       </c>
       <c r="D2">
-        <v>11.12</v>
+        <v>12.72</v>
       </c>
       <c r="E2">
-        <v>34.29</v>
+        <v>57.86</v>
       </c>
       <c r="F2">
-        <v>2.73</v>
+        <v>12.27</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -5698,19 +4762,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.45</v>
+        <v>19.89</v>
       </c>
       <c r="C3">
         <v>5.34</v>
       </c>
       <c r="D3">
-        <v>11.67</v>
+        <v>14.27</v>
       </c>
       <c r="E3">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F3">
-        <v>5.45</v>
+        <v>21.82</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5724,19 +4788,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.14</v>
+        <v>22.94</v>
       </c>
       <c r="C4">
-        <v>5.41</v>
+        <v>5.71</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15.96</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
-        <v>9.09</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -5750,19 +4814,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77</v>
+        <v>26.15</v>
       </c>
       <c r="C5">
-        <v>5.53</v>
+        <v>6.08</v>
       </c>
       <c r="D5">
-        <v>12.57</v>
+        <v>18.2</v>
       </c>
       <c r="E5">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F5">
-        <v>13.64</v>
+        <v>49.09</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5776,19 +4840,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.03</v>
+        <v>28.77</v>
       </c>
       <c r="C6">
-        <v>5.62</v>
+        <v>6.45</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>20.58</v>
       </c>
       <c r="E6">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F6">
-        <v>19.09</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5802,19 +4866,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.02</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="C7">
-        <v>5.71</v>
+        <v>6.82</v>
       </c>
       <c r="D7">
-        <v>13.82</v>
+        <v>24.24</v>
       </c>
       <c r="E7">
         <v>57.86</v>
       </c>
       <c r="F7">
-        <v>25.45</v>
+        <v>79.09</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -5823,214 +4887,8 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>21.8</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>23.94</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
-      </c>
-    </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>25.91</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
-      </c>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>31.5</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>43.22</v>
-      </c>
-      <c r="C12">
-        <v>6.62</v>
-      </c>
-      <c r="D12">
-        <v>27.6</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.05</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.79</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.760000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>89.09</v>
-      </c>
-      <c r="C15">
-        <v>7.17</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6041,20 +4899,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6062,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>2.25</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -6073,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -6084,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -6095,10 +4953,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.0099999999999998</v>
+        <v>0.66</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6106,10 +4964,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6117,99 +4975,15 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>0.22</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.28</v>
-      </c>
-      <c r="C9">
         <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.86</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.38</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.33</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.27</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.34902036190032959</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.5648594126105309E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15">
-        <v>0.01</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6219,44 +4993,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6264,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -6291,7 +5065,7 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6299,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -6326,7 +5100,7 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6334,10 +5108,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0.01</v>
@@ -6361,7 +5135,7 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6369,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
         <v>0.01</v>
@@ -6396,7 +5170,7 @@
         <v>0.13</v>
       </c>
       <c r="K5">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6404,10 +5178,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D6">
         <v>0.01</v>
@@ -6431,7 +5205,7 @@
         <v>0.13</v>
       </c>
       <c r="K6">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6439,10 +5213,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
         <v>0.01</v>
@@ -6466,287 +5240,7 @@
         <v>0.13</v>
       </c>
       <c r="K7">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.03</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.04</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.04</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.04</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.04</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.05</v>
-      </c>
-      <c r="C13">
-        <v>0.03</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.03</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>0.03</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.05</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
-      <c r="D15">
-        <v>0.02</v>
-      </c>
-      <c r="E15">
-        <v>0.02</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1.26</v>
-      </c>
-      <c r="J15">
-        <v>0.13</v>
-      </c>
-      <c r="K15">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/dtpu_configurations/only_integer32/80mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBE4323-B91A-4093-A6A8-00679C6AC3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A98F3A-52F5-4199-ABCB-A874728819E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>3x3</t>
   </si>
@@ -84,11 +94,17 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,12 +147,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1579,25 +1602,25 @@
             <c:numRef>
               <c:f>power!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>3.4093111753463745E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>3.6187682300806046E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>3.8677625358104706E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5269288122653961E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>4.7236934304237366E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06</c:v>
+                  <c:v>5.7962413877248764E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,25 +1686,25 @@
             <c:numRef>
               <c:f>power!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2504630722105503E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3008332811295986E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4650509692728519E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6871728003025055E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>1.802004873752594E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>1.8110048025846481E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,25 +1770,25 @@
             <c:numRef>
               <c:f>power!$D$2:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0054086335003376E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0217397473752499E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.1020987294614315E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2465286068618298E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3402742333710194E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2389696203172207E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,25 +1854,25 @@
             <c:numRef>
               <c:f>power!$E$2:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>6.5636578947305679E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>7.1235764771699905E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>8.5512883961200714E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>8.6825070902705193E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0327234864234924E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>7.411835715174675E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,25 +1938,25 @@
             <c:numRef>
               <c:f>power!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9054582379758358E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0506086982786655E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6408354276791215E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3648566566407681E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.2185819000005722E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.6747513804584742E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,25 +2022,25 @@
             <c:numRef>
               <c:f>power!$G$2:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.6463621286675334E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6959058120846748E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.6934267953038216E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.7329078186303377E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.436380997300148E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.8983392510563135E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,25 +2108,25 @@
             <c:numRef>
               <c:f>power!$H$2:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.4924227725714445E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.4924227725714445E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.4924227725714445E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4924227725714445E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4924227725714445E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.4924227725714445E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,25 +2194,25 @@
             <c:numRef>
               <c:f>power!$I$2:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2604483366012573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2604483366012573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2604483366012573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2604483366012573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2604483366012573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2604483366012573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,25 +2280,25 @@
             <c:numRef>
               <c:f>power!$J$2:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12759211659431458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12762348353862762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12768863141536713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12778836488723755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12783977389335632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.1278875470161438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,25 +2366,25 @@
             <c:numRef>
               <c:f>power!$K$2:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4549953937530518</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.46</c:v>
+                  <c:v>1.4588578939437866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.47</c:v>
+                  <c:v>1.4668741226196289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.48</c:v>
+                  <c:v>1.4791258573532104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.49</c:v>
+                  <c:v>1.4854326248168945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.49</c:v>
+                  <c:v>1.4912855625152588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,7 +2475,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4702,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4993,15 +5016,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -5032,219 +5058,578 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="4">
+        <v>3.4093111753463745E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.2504630722105503E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0054086335003376E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.5636578947305679E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.9054582379758358E-4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.6463621286675334E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.12759211659431458</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.4549953937530518</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>6.6954940557479858E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="O2" s="5">
+        <f>B2/L2</f>
+        <v>0.5091948625388637</v>
+      </c>
+      <c r="P2" s="5">
+        <f>C2/L2</f>
+        <v>0.18676188221495704</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>D2/L2</f>
+        <v>0.15016197835874542</v>
+      </c>
+      <c r="R2" s="5">
+        <f>E2/L2</f>
+        <v>9.8030971875716355E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <f>F2/L2</f>
+        <v>8.8200485114404426E-3</v>
+      </c>
+      <c r="T2" s="5">
+        <f>G2/L2</f>
+        <v>2.4589105971263691E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <f>H2/L2</f>
+        <v>2.2289957397396552E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.45</v>
+      <c r="X2" s="5">
+        <f>I2/K2</f>
+        <v>0.86629025907087254</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>J2/K2</f>
+        <v>8.7692453970730624E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>L2/K2</f>
+        <v>4.6017286958396894E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.04</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.46</v>
+      <c r="B3" s="4">
+        <v>3.6187682300806046E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.3008332811295986E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0217397473752499E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.1235764771699905E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.0506086982786655E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.6959058120846748E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.12762348353862762</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4588578939437866</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">K3-J3-I3</f>
+        <v>7.0786073803901672E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.51122601319938454</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.18376966135080339</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.14434191536117269</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10063528169261655</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>1.4842025299908029E-2</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.3958184441516487E-2</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.1083564780070955E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.8639966523359166</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.7481778772583632E-2</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>4.8521568891499743E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.04</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.47</v>
+      <c r="B4" s="4">
+        <v>3.8677625358104706E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.4650509692728519E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.1020987294614315E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.5512883961200714E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.6408354276791215E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.6934267953038216E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12768863141536713</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.4668741226196289</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7.8737154603004456E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49122457565451372</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18606856910942379</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13997187668493391</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10860550446909052</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0839404674353197E-2</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="6"/>
+        <v>3.4207824868503003E-2</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8954492070437309E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="8"/>
+        <v>0.85927505105228497</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7048117794411267E-2</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="10"/>
+        <v>5.3676831153303788E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.48</v>
+      <c r="B5" s="4">
+        <v>4.5269288122653961E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.6871728003025055E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.2465286068618298E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.6825070902705193E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.3648566566407681E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.7329078186303377E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.12778836488723755</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.4791258573532104</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>9.0889155864715576E-2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49807138917689214</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18562971393570718</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13714822136947025</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>9.5528526012432557E-2</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6019128840416902E-2</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="6"/>
+        <v>4.107099227752322E-2</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="7"/>
+        <v>1.6420251221090101E-2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="8"/>
+        <v>0.85215759722890594</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="9"/>
+        <v>8.6394517580745733E-2</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="10"/>
+        <v>6.14478851903483E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.49</v>
+      <c r="B6" s="4">
+        <v>4.7236934304237366E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.802004873752594E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.3402742333710194E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.0327234864234924E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.2185819000005722E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.436380997300148E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.12783977389335632</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4854326248168945</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>9.7144514322280884E-2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48625426390549353</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18549733727365905</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13796705276888874</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10630795713254484</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="5"/>
+        <v>3.3131895531669404E-2</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="6"/>
+        <v>3.5373906815775659E-2</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5362913520986591E-2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="8"/>
+        <v>0.84853955375904688</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="9"/>
+        <v>8.6062317305784772E-2</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="10"/>
+        <v>6.5398128935168387E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.06</v>
-      </c>
-      <c r="C7">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.49</v>
-      </c>
+      <c r="B7" s="4">
+        <v>5.7962413877248764E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.8110048025846481E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.2389696203172207E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.411835715174675E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.6747513804584742E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.8983392510563135E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.1278875470161438</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.4912855625152588</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.10294967889785767</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.56301694670419156</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17591165139829631</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12034710876043374</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
+        <v>7.1994743398164321E-2</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="5"/>
+        <v>3.5694636639949193E-2</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="6"/>
+        <v>1.8439486857844072E-2</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4496623870504381E-2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.84520923978861384</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="9"/>
+        <v>8.5756578237399295E-2</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="10"/>
+        <v>6.9034181973986822E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>